--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -45,7 +45,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
     <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from napkon-pediatric" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from NapkonPediatrics" r:id="rId6" sheetId="4"/>
     <sheet name="Include from SNOMED CT 3" r:id="rId7" sheetId="5"/>
     <sheet name="Include from SNOMED CT 4" r:id="rId8" sheetId="6"/>
     <sheet name="Include from SNOMED CT 5" r:id="rId9" sheetId="7"/>
@@ -192,7 +192,7 @@
     <t>B cell activating factor inhibitor</t>
   </si>
   <si>
-    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-pediatrics-module</t>
+    <t>https://www.napkon.de/fhir/CodeSystem/napkon-pediatrics-module</t>
   </si>
   <si>
     <t>#58760003</t>

--- a/ValueSet-immunosuppressive-permament-medications.xlsx
+++ b/ValueSet-immunosuppressive-permament-medications.xlsx
@@ -114,7 +114,7 @@
     <t>is-a</t>
   </si>
   <si>
-    <t>#768759001</t>
+    <t>768759001</t>
   </si>
   <si>
     <t/>
@@ -126,7 +126,7 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>#416587008</t>
+    <t>416587008</t>
   </si>
   <si>
     <t>Concept</t>
@@ -195,40 +195,40 @@
     <t>https://www.napkon.de/fhir/CodeSystem/napkon-pediatrics-module</t>
   </si>
   <si>
-    <t>#58760003</t>
-  </si>
-  <si>
-    <t>#19768003</t>
-  </si>
-  <si>
-    <t>#416897008</t>
-  </si>
-  <si>
-    <t>#430817009</t>
-  </si>
-  <si>
-    <t>#784015001</t>
-  </si>
-  <si>
-    <t>#771678003</t>
-  </si>
-  <si>
-    <t>#870401008</t>
-  </si>
-  <si>
-    <t>#786198001</t>
-  </si>
-  <si>
-    <t>#704315005</t>
-  </si>
-  <si>
-    <t>#129557000</t>
-  </si>
-  <si>
-    <t>#48583005</t>
-  </si>
-  <si>
-    <t>#768865007</t>
+    <t>58760003</t>
+  </si>
+  <si>
+    <t>19768003</t>
+  </si>
+  <si>
+    <t>416897008</t>
+  </si>
+  <si>
+    <t>430817009</t>
+  </si>
+  <si>
+    <t>784015001</t>
+  </si>
+  <si>
+    <t>771678003</t>
+  </si>
+  <si>
+    <t>870401008</t>
+  </si>
+  <si>
+    <t>786198001</t>
+  </si>
+  <si>
+    <t>704315005</t>
+  </si>
+  <si>
+    <t>129557000</t>
+  </si>
+  <si>
+    <t>48583005</t>
+  </si>
+  <si>
+    <t>768865007</t>
   </si>
   <si>
     <t>69431002</t>
